--- a/test_files/tokenization/quotations.xlsx
+++ b/test_files/tokenization/quotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell\minishell-tester\test_files\tokenization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305AECE6-A756-4CFA-84E5-403950E6F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BBF4B8-8F8C-474C-B6B6-0A8BA1C3AE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,33 +132,6 @@
     <t>echo $"SHLVL"</t>
   </si>
   <si>
-    <t>echo 1</t>
-  </si>
-  <si>
-    <t>echo '1'</t>
-  </si>
-  <si>
-    <t>echo ''1''</t>
-  </si>
-  <si>
-    <t>echo '1</t>
-  </si>
-  <si>
-    <t>echo ''''1</t>
-  </si>
-  <si>
-    <t>echo 1'</t>
-  </si>
-  <si>
-    <t>echo 1''''</t>
-  </si>
-  <si>
-    <t>echo 1a</t>
-  </si>
-  <si>
-    <t>echo 11</t>
-  </si>
-  <si>
     <t>echo SHLVL</t>
   </si>
   <si>
@@ -166,6 +139,33 @@
   </si>
   <si>
     <t>echo ''$SHLVL''</t>
+  </si>
+  <si>
+    <t>echo ''''2</t>
+  </si>
+  <si>
+    <t>echo 2'</t>
+  </si>
+  <si>
+    <t>echo 2</t>
+  </si>
+  <si>
+    <t>echo '2'</t>
+  </si>
+  <si>
+    <t>echo ''2''</t>
+  </si>
+  <si>
+    <t>echo '2</t>
+  </si>
+  <si>
+    <t>echo 2''''</t>
+  </si>
+  <si>
+    <t>echo 2a</t>
+  </si>
+  <si>
+    <t>echo 22</t>
   </si>
 </sst>
 </file>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AME33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1010,7 +1010,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
